--- a/documents/ER図.xlsx
+++ b/documents/ER図.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54758F9-7E39-438A-94EB-8B3E5E10D776}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF53971-A1C2-4599-80C9-5F6EBD33F930}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0256DE7-9828-4225-ADF3-865584CD0953}"/>
   </bookViews>
   <sheets>
-    <sheet name="ER図" sheetId="1" r:id="rId1"/>
+    <sheet name="ER図" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>商品ID</t>
     <rPh sb="0" eb="2">
@@ -135,17 +135,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品数量</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンスウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カート内商品テーブル</t>
     <rPh sb="3" eb="6">
       <t>ナイショウヒン</t>
@@ -161,15 +150,38 @@
   </si>
   <si>
     <t>在庫数</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品数</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上・仕入テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シイレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在庫数の増減</t>
     <rPh sb="0" eb="3">
       <t>ザイコスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>在庫テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -285,23 +297,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+        <xdr:cNvPr id="2" name="コネクタ: カギ線 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4180E3E8-0C7E-E5DA-1084-2FE40B57D255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C37545-DD4C-4C98-B2D7-A78C01D0DA09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -309,8 +321,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="800100"/>
+          <a:off x="3162300" y="800100"/>
           <a:ext cx="3086100" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="コネクタ: カギ線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F048BF-EC52-4E4D-8216-3ECC1A59643B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="1028700"/>
+          <a:ext cx="838200" cy="692150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -337,30 +399,30 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D59C20-0200-38D6-1BF2-4A3EDF45ED57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4489ED-1129-4A17-BC8F-BE77D0C5BD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="1028700"/>
-          <a:ext cx="838200" cy="692150"/>
+        <a:xfrm flipV="1">
+          <a:off x="7366000" y="800100"/>
+          <a:ext cx="1117600" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -385,32 +447,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+        <xdr:cNvPr id="5" name="コネクタ: カギ線 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947F44D1-B2EB-F9A6-AB76-522EA51E75B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AB7779-0A06-4715-AF40-AAB2575046D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10490200" y="800100"/>
-          <a:ext cx="1117600" cy="476250"/>
+        <a:xfrm>
+          <a:off x="9613900" y="812800"/>
+          <a:ext cx="1117600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -435,123 +497,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87C5D4C-0CC0-44D5-C660-2857CA26F74B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12738100" y="812800"/>
-          <a:ext cx="1117600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5DBA21-ADD0-1201-8D15-B8D74ED07892}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12757150" y="1492250"/>
-          <a:ext cx="1085850" cy="844550"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF64631-485F-7D6C-0F3F-3AF3404ADA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6F1B4D-0375-4F39-A77E-EB92A37CD824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6273800" y="1054100"/>
+          <a:off x="3149600" y="1054100"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -607,23 +569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D958B49-3C1C-4DFD-A6CE-E65B06F93D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0177FFD-F6EC-47FD-BD6D-FAE6F38DBA7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="482600"/>
+          <a:off x="3219450" y="482600"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -679,23 +641,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C5A0AD-8BBC-4045-ACE1-0E078579C3F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE92061A-200A-4AE0-8B4F-7A34BE90D5C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864350" y="1752600"/>
+          <a:off x="3740150" y="1752600"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,23 +713,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98305889-8DE8-4052-9264-1F05C8C5125F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C145CF3-2969-4D93-AABC-C2A3F45826C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -775,7 +737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10547350" y="984250"/>
+          <a:off x="7423150" y="984250"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -820,23 +782,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D9B32D-DF20-4151-98D2-228E9CAB2782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3FCCF9-CAF5-480C-BAD4-06C43C2033D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,7 +806,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391900" y="819150"/>
+          <a:off x="8267700" y="819150"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,23 +854,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71E064B-5082-4BB4-8ED5-6BAA7CA6D8B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE0048-45D8-4FAE-86CA-14673760DCA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +878,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12782550" y="533400"/>
+          <a:off x="9658350" y="533400"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -964,23 +926,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E720A97-99E7-4804-8F76-18CFE0FF06E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B33A110-B8DC-44ED-B013-B67BABB9A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +950,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13627100" y="1079500"/>
+          <a:off x="10502900" y="1079500"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,23 +998,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAD9437-D54C-4B3F-8090-A86F391382A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE97015-A9D4-4D4C-BBA2-0437C5EB6977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,7 +1022,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="1549400"/>
+          <a:off x="9613900" y="1454150"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1108,23 +1070,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E12C188-FE95-4921-8BCA-2F421EFF8294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8A89FC-C7EB-4590-8593-D0461641970F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13627100" y="2362200"/>
+          <a:off x="10496550" y="2419350"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1180,23 +1142,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1060450</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED290D4-A2CB-4E9E-9DCE-A48604D50780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AC9C10-ABD6-4011-AE79-F3CA67DF00D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8896350" y="762000"/>
+          <a:off x="5772150" y="762000"/>
           <a:ext cx="406400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,23 +1214,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD5E97-F9FF-473B-A63A-AEA660F93D23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCF9A0F-FAC6-4149-A7D7-619490D7070E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10502900" y="1022350"/>
+          <a:off x="7378700" y="1022350"/>
           <a:ext cx="406400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1322,7 +1284,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C69498-0883-48BA-9EE5-EA27ACADC876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9613900" y="1727200"/>
+          <a:ext cx="1136650" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1621,151 +1637,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671B8C02-B79E-43F1-8863-CB56334FC96C}">
-  <dimension ref="F3:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A4D1AB-78B6-40C0-8ABB-AE5087FB8CB4}">
+  <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>0</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F6" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F7" s="3" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="3" t="s">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="6:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="N15" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/documents/ER図.xlsx
+++ b/documents/ER図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF53971-A1C2-4599-80C9-5F6EBD33F930}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9DCB192-1E8F-4B3F-AD8C-64D2AA44F709}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0256DE7-9828-4225-ADF3-865584CD0953}"/>
   </bookViews>
@@ -176,12 +176,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>在庫数の増減</t>
+    <t>販売数</t>
     <rPh sb="0" eb="3">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゾウゲン</t>
+      <t>ハンバイスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1641,7 +1638,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/documents/ER図.xlsx
+++ b/documents/ER図.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e7ce39897d0928/ドキュメント/プログラミング/DCITEX/PHP/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9DCB192-1E8F-4B3F-AD8C-64D2AA44F709}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{68E3C680-FBF2-442A-BBDC-63CC746B3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683019A5-216E-46BA-8616-9C107B9ADD03}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0256DE7-9828-4225-ADF3-865584CD0953}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>商品ID</t>
     <rPh sb="0" eb="2">
@@ -108,10 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -159,13 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品数</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>売上・仕入テーブル</t>
     <rPh sb="0" eb="2">
       <t>ウリアゲ</t>
@@ -179,6 +169,38 @@
     <t>販売数</t>
     <rPh sb="0" eb="3">
       <t>ハンバイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動ログインテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -444,56 +466,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="コネクタ: カギ線 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AB7779-0A06-4715-AF40-AAB2575046D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9613900" y="812800"/>
-          <a:ext cx="1117600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -639,15 +611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -662,7 +634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3740150" y="1752600"/>
+          <a:off x="2635250" y="1454150"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -710,23 +682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C145CF3-2969-4D93-AABC-C2A3F45826C9}"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3FCCF9-CAF5-480C-BAD4-06C43C2033D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7423150" y="984250"/>
+          <a:off x="673100" y="514350"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -765,7 +737,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -779,23 +754,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3FCCF9-CAF5-480C-BAD4-06C43C2033D5}"/>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE0048-45D8-4FAE-86CA-14673760DCA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="819150"/>
+          <a:off x="9658350" y="533400"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -852,22 +827,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>882650</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:colOff>1098550</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE0048-45D8-4FAE-86CA-14673760DCA6}"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B33A110-B8DC-44ED-B013-B67BABB9A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9658350" y="533400"/>
+          <a:off x="9372600" y="527050"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -924,22 +899,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B33A110-B8DC-44ED-B013-B67BABB9A069}"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE97015-A9D4-4D4C-BBA2-0437C5EB6977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10502900" y="1079500"/>
+          <a:off x="9613900" y="1454150"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,22 +971,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE97015-A9D4-4D4C-BBA2-0437C5EB6977}"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8A89FC-C7EB-4590-8593-D0461641970F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9613900" y="1454150"/>
+          <a:off x="10496550" y="2419350"/>
           <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,23 +1042,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1098550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1060450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8A89FC-C7EB-4590-8593-D0461641970F}"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AC9C10-ABD6-4011-AE79-F3CA67DF00D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,8 +1066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10496550" y="2419350"/>
-          <a:ext cx="215900" cy="247650"/>
+          <a:off x="5772150" y="762000"/>
+          <a:ext cx="406400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,7 +1099,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>1..*</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1139,23 +1114,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1060450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AC9C10-ABD6-4011-AE79-F3CA67DF00D3}"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCF9A0F-FAC6-4149-A7D7-619490D7070E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="762000"/>
+          <a:off x="6254750" y="1333500"/>
           <a:ext cx="406400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1211,23 +1186,273 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C69498-0883-48BA-9EE5-EA27ACADC876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9613900" y="1727200"/>
+          <a:ext cx="1136650" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3FFD8D-E201-8212-C812-6DE03CA0C7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8483600" y="812800"/>
+          <a:ext cx="1162050" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9912219-804F-C9A3-2E4A-A45C92680990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="292100"/>
+          <a:ext cx="10445750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D527D77F-DF33-438B-E417-BDDE02827815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="285750"/>
+          <a:ext cx="0" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210AA94-B3AD-BFC1-8972-FFBE18FFD82E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10744200" y="1016000"/>
+          <a:ext cx="228600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCF9A0F-FAC6-4149-A7D7-619490D7070E}"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C0D594-5269-4376-B877-605E6A01B590}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,8 +1460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7378700" y="1022350"/>
-          <a:ext cx="406400" cy="184150"/>
+          <a:off x="7124700" y="889000"/>
+          <a:ext cx="215900" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1268,6 +1493,78 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F6AF4F-10BC-44FB-A5CF-C787E99E996D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10756900" y="1028700"/>
+          <a:ext cx="406400" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>1..*</a:t>
           </a:r>
         </a:p>
@@ -1283,34 +1580,184 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B2A691-226F-645F-A621-0C2029F43F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="501650" y="292100"/>
+          <a:ext cx="0" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAEB3D3-1D81-BFF1-7DE0-E40CA511AD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="781050"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C69498-0883-48BA-9EE5-EA27ACADC876}"/>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E65A3A-2CBD-9D81-75BE-9D97C4330EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2019300" y="1790700"/>
+          <a:ext cx="819150" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDD76FB-EB2D-CA06-5F06-589B1BB37C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9613900" y="1727200"/>
-          <a:ext cx="1136650" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+          <a:off x="501650" y="857250"/>
+          <a:ext cx="0" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1329,6 +1776,250 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF0CAE1-2E6D-401E-AABD-368271DB4F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488950" y="869950"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6986DE29-ED8F-42CB-AA3B-C18134227420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="2806700"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01C9CF0-B29E-437B-B5F2-6326F44541A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="889000"/>
+          <a:ext cx="215900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74EA5CC-D9C3-46A2-936B-88D30F1A7F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="2940050"/>
+          <a:ext cx="215900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1638,7 +2329,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1649,7 +2340,7 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
@@ -1660,44 +2351,44 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -1705,43 +2396,52 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
@@ -1751,8 +2451,11 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>5</v>
@@ -1762,14 +2465,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="2" t="s">
-        <v>5</v>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1789,4 +2495,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7829F5F9-D2D6-4084-A1ED-3F8D989705D1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>